--- a/data/trans_camb/P75-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P75-Estudios-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,91; -2,8</t>
+          <t>-10,57; -2,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,12; -3,5</t>
+          <t>-9,72; -3,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,24; -4,1</t>
+          <t>-8,94; -4,13</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,18; -12,84</t>
+          <t>-41,66; -13,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-43,07; -16,9</t>
+          <t>-42,0; -16,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-39,32; -19,64</t>
+          <t>-38,27; -19,31</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,71; -11,52</t>
+          <t>-16,9; -11,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,28; -12,83</t>
+          <t>-18,26; -12,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,88; -12,88</t>
+          <t>-16,78; -12,99</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,49; -43,23</t>
+          <t>-56,66; -43,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-55,31; -45,42</t>
+          <t>-54,87; -46,07</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,22; -8,77</t>
+          <t>-19,12; -9,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-19,21; -8,43</t>
+          <t>-19,31; -8,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,19; -9,96</t>
+          <t>-17,48; -10,02</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-68,89; -40,73</t>
+          <t>-69,05; -41,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-62,26; -35,24</t>
+          <t>-63,06; -34,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-62,27; -42,22</t>
+          <t>-62,18; -41,79</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,37; -10,28</t>
+          <t>-14,43; -10,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,95; -9,9</t>
+          <t>-13,99; -10,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,4; -10,73</t>
+          <t>-13,49; -10,7</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-52,05; -40,38</t>
+          <t>-52,09; -40,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-50,17; -39,15</t>
+          <t>-49,95; -38,84</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,06; -41,46</t>
+          <t>-49,46; -41,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P75-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P75-Estudios-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,57; -2,93</t>
+          <t>-10,46; -2,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,72; -3,29</t>
+          <t>-10,2; -3,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,94; -4,13</t>
+          <t>-9,16; -4,05</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-41,66; -13,52</t>
+          <t>-41,18; -11,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-42,0; -16,23</t>
+          <t>-42,84; -15,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,27; -19,31</t>
+          <t>-38,75; -18,98</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,9; -11,65</t>
+          <t>-16,79; -11,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,26; -12,93</t>
+          <t>-18,09; -12,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,78; -12,99</t>
+          <t>-16,77; -12,88</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,66; -43,06</t>
+          <t>-56,33; -42,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-56,93; -44,32</t>
+          <t>-56,52; -43,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-54,87; -46,07</t>
+          <t>-55,12; -45,44</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,12; -9,43</t>
+          <t>-19,15; -8,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-19,31; -8,57</t>
+          <t>-19,57; -8,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,48; -10,02</t>
+          <t>-17,69; -9,91</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-69,05; -41,87</t>
+          <t>-68,43; -40,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-63,06; -34,59</t>
+          <t>-63,21; -35,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-62,18; -41,79</t>
+          <t>-61,98; -41,72</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,43; -10,33</t>
+          <t>-14,13; -10,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,99; -10,03</t>
+          <t>-14,08; -10,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,49; -10,7</t>
+          <t>-13,68; -10,79</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-52,09; -40,87</t>
+          <t>-51,9; -40,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-49,95; -38,84</t>
+          <t>-49,72; -38,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,46; -41,56</t>
+          <t>-49,73; -41,72</t>
         </is>
       </c>
     </row>
